--- a/underthesea/feature_engineering/rules.xlsx
+++ b/underthesea/feature_engineering/rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C852"/>
+  <dimension ref="A1:C859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9497,12 +9497,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>nghục</t>
+          <t>nghút</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>ngục</t>
+          <t>ngút</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9514,12 +9514,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>nghủ</t>
+          <t>nghũ</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>ngủ</t>
+          <t>ngũ</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9531,63 +9531,63 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>buà</t>
+          <t>nghục</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>bùa</t>
+          <t>ngục</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>ua</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>buá</t>
+          <t>nghủ</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>búa</t>
+          <t>ngủ</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>ua</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>buả</t>
+          <t>nghữ</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>bủa</t>
+          <t>ngữ</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>ua</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>bưà</t>
+          <t>buà</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>bừa</t>
+          <t>bùa</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9599,12 +9599,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>bưã</t>
+          <t>buá</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>bữa</t>
+          <t>búa</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9616,12 +9616,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>chuà</t>
+          <t>buả</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>chùa</t>
+          <t>bủa</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -9633,12 +9633,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>chuá</t>
+          <t>bưà</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>chúa</t>
+          <t>bừa</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9650,12 +9650,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>chuạ</t>
+          <t>bưã</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>chụa</t>
+          <t>bữa</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9667,12 +9667,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>chuả</t>
+          <t>chuà</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>chủa</t>
+          <t>chùa</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9684,12 +9684,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>chưá</t>
+          <t>chuá</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>chứa</t>
+          <t>chúa</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -9701,12 +9701,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>chưả</t>
+          <t>chuạ</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>chửa</t>
+          <t>chụa</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9718,12 +9718,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>chưã</t>
+          <t>chuả</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>chữa</t>
+          <t>chủa</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9735,12 +9735,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>chưạ</t>
+          <t>chưá</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>chựa</t>
+          <t>chứa</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -9752,12 +9752,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>cuà</t>
+          <t>chưả</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>cùa</t>
+          <t>chửa</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9769,12 +9769,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>cuá</t>
+          <t>chưã</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>cúa</t>
+          <t>chữa</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9786,12 +9786,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>cuả</t>
+          <t>chưạ</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>của</t>
+          <t>chựa</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9803,12 +9803,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>cưả</t>
+          <t>cuà</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>cửa</t>
+          <t>cùa</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -9820,12 +9820,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>cưạ</t>
+          <t>cuá</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>cựa</t>
+          <t>cúa</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9837,12 +9837,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>duá</t>
+          <t>cuả</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>dúa</t>
+          <t>của</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9854,12 +9854,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>duạ</t>
+          <t>cưả</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>dụa</t>
+          <t>cửa</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9871,12 +9871,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>dưạ</t>
+          <t>cưạ</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>dựa</t>
+          <t>cựa</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9888,12 +9888,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>húân</t>
+          <t>duá</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>huấn</t>
+          <t>dúa</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9905,12 +9905,12 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>huả</t>
+          <t>duạ</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>hủa</t>
+          <t>dụa</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9922,12 +9922,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>hưá</t>
+          <t>dưạ</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>hứa</t>
+          <t>dựa</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -9939,12 +9939,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>khuả</t>
+          <t>húân</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>khủa</t>
+          <t>huấn</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9956,12 +9956,12 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>luà</t>
+          <t>huả</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>lùa</t>
+          <t>hủa</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9973,12 +9973,12 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>luá</t>
+          <t>hưá</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>lúa</t>
+          <t>hứa</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -9990,12 +9990,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>luạ</t>
+          <t>khúât</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>lụa</t>
+          <t>khuất</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -10007,12 +10007,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>lưà</t>
+          <t>khuả</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>lừa</t>
+          <t>khủa</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10024,12 +10024,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>lưả</t>
+          <t>luà</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>lửa</t>
+          <t>lùa</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -10041,12 +10041,12 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>lưã</t>
+          <t>luá</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>lữa</t>
+          <t>lúa</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -10058,12 +10058,12 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>lưạ</t>
+          <t>luạ</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>lựa</t>
+          <t>lụa</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10075,12 +10075,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>muà</t>
+          <t>lưà</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>mùa</t>
+          <t>lừa</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>muá</t>
+          <t>lưả</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>múa</t>
+          <t>lửa</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -10109,12 +10109,12 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>muạ</t>
+          <t>lưã</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>mụa</t>
+          <t>lữa</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -10126,12 +10126,12 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>mưạ</t>
+          <t>lưạ</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>mựa</t>
+          <t>lựa</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10143,12 +10143,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ngưá</t>
+          <t>muà</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>ngứa</t>
+          <t>mùa</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10160,12 +10160,12 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ngưạ</t>
+          <t>muá</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>ngựa</t>
+          <t>múa</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -10177,12 +10177,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>nuạ</t>
+          <t>muạ</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>nụa</t>
+          <t>mụa</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10194,12 +10194,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>nưã</t>
+          <t>mưạ</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>nữa</t>
+          <t>mựa</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10211,12 +10211,12 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>qúa</t>
+          <t>ngưá</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>quá</t>
+          <t>ngứa</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -10228,12 +10228,12 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>qụa</t>
+          <t>ngưạ</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>quạ</t>
+          <t>ngựa</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -10245,12 +10245,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>qụang</t>
+          <t>nuạ</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>quạng</t>
+          <t>nụa</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10262,12 +10262,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>qụat</t>
+          <t>nưã</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>quạt</t>
+          <t>nữa</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10279,12 +10279,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>qủa</t>
+          <t>qúa</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>quả</t>
+          <t>quá</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10296,12 +10296,12 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ruà</t>
+          <t>qụa</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>rùa</t>
+          <t>quạ</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10313,12 +10313,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ruả</t>
+          <t>qụang</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>rủa</t>
+          <t>quạng</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10330,12 +10330,12 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>rưả</t>
+          <t>qụat</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>rửa</t>
+          <t>quạt</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10347,12 +10347,12 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>suạ</t>
+          <t>qủa</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>sụa</t>
+          <t>quả</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10364,12 +10364,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>suả</t>
+          <t>ruà</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>sủa</t>
+          <t>rùa</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10381,12 +10381,12 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>sưả</t>
+          <t>ruả</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>sửa</t>
+          <t>rủa</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10398,12 +10398,12 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>sưã</t>
+          <t>rưả</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>sữa</t>
+          <t>rửa</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10415,12 +10415,12 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>thụât</t>
+          <t>suạ</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>thuật</t>
+          <t>sụa</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10432,12 +10432,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>thuạ</t>
+          <t>suả</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>thụa</t>
+          <t>sủa</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10449,12 +10449,12 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>thưà</t>
+          <t>sưả</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>thừa</t>
+          <t>sửa</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -10466,12 +10466,12 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>thưả</t>
+          <t>sưã</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>thửa</t>
+          <t>sữa</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10483,12 +10483,12 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>thưạ</t>
+          <t>thụât</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>thựa</t>
+          <t>thuật</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10500,12 +10500,12 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>tùân</t>
+          <t>thuạ</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>tuần</t>
+          <t>thụa</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10517,12 +10517,12 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>tuá</t>
+          <t>thưà</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>túa</t>
+          <t>thừa</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10534,12 +10534,12 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>tưạ</t>
+          <t>thưả</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>tựa</t>
+          <t>thửa</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10551,12 +10551,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ủân</t>
+          <t>thưạ</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>uẩn</t>
+          <t>thựa</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10568,12 +10568,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>vuà</t>
+          <t>tùân</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>vùa</t>
+          <t>tuần</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -10585,12 +10585,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>vuạ</t>
+          <t>tuá</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>vụa</t>
+          <t>túa</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10602,12 +10602,12 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>vuả</t>
+          <t>tưạ</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>vủa</t>
+          <t>tựa</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10619,12 +10619,12 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>vưà</t>
+          <t>ủân</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>vừa</t>
+          <t>uẩn</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10636,12 +10636,12 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>xúât</t>
+          <t>vuà</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>xuất</t>
+          <t>vùa</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -10653,12 +10653,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>xuả</t>
+          <t>vuạ</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>xủa</t>
+          <t>vụa</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10670,12 +10670,12 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>xưạ</t>
+          <t>vuả</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>xựa</t>
+          <t>vủa</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10687,12 +10687,12 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>uà</t>
+          <t>vưà</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>ùa</t>
+          <t>vừa</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -10704,12 +10704,12 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>uá</t>
+          <t>xúât</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>úa</t>
+          <t>xuất</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10721,12 +10721,12 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>đuà</t>
+          <t>xuả</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>đùa</t>
+          <t>xủa</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10738,12 +10738,12 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>đuạ</t>
+          <t>xưạ</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>đụa</t>
+          <t>xựa</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10755,12 +10755,12 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>đuả</t>
+          <t>uà</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>đủa</t>
+          <t>ùa</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -10772,12 +10772,12 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>đưá</t>
+          <t>uá</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>đứa</t>
+          <t>úa</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10789,12 +10789,12 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>đưạ</t>
+          <t>đuà</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>đựa</t>
+          <t>đùa</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10806,12 +10806,12 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>uả</t>
+          <t>đuạ</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>ủa</t>
+          <t>đụa</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -10823,12 +10823,12 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ưá</t>
+          <t>đuả</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>ứa</t>
+          <t>đủa</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10840,12 +10840,12 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ưà</t>
+          <t>đưá</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>ừa</t>
+          <t>đứa</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10857,12 +10857,12 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ưạ</t>
+          <t>đưạ</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>ựa</t>
+          <t>đựa</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10874,199 +10874,199 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>quaí</t>
+          <t>uả</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>quái</t>
+          <t>ủa</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>uai</t>
+          <t>ua</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>quaỵ</t>
+          <t>ưá</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>quạy</t>
+          <t>ứa</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>uay</t>
+          <t>ua</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>dụê</t>
+          <t>ưà</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>duệ</t>
+          <t>ừa</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>ue</t>
+          <t>ua</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>hụê</t>
+          <t>ưạ</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>huệ</t>
+          <t>ựa</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>ue</t>
+          <t>ua</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>nhụê</t>
+          <t>quaí</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>nhuệ</t>
+          <t>quái</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>ue</t>
+          <t>uai</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>tụê</t>
+          <t>quaọ</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>tuệ</t>
+          <t>quạo</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>ue</t>
+          <t>uao</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>buị</t>
+          <t>quaỵ</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>bụi</t>
+          <t>quạy</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>ui</t>
+          <t>uay</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>chuì</t>
+          <t>dụê</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>chùi</t>
+          <t>duệ</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>ui</t>
+          <t>ue</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>chuỉ</t>
+          <t>hụê</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>chủi</t>
+          <t>huệ</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>ui</t>
+          <t>ue</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>chưỉ</t>
+          <t>nhụê</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>chửi</t>
+          <t>nhuệ</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>ui</t>
+          <t>ue</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>gưỉ</t>
+          <t>tụê</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>gửi</t>
+          <t>tuệ</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>ui</t>
+          <t>ue</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>luị</t>
+          <t>buị</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>lụi</t>
+          <t>bụi</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11078,12 +11078,12 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>muì</t>
+          <t>chuì</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>mùi</t>
+          <t>chùi</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11095,12 +11095,12 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>muĩ</t>
+          <t>chuỉ</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>mũi</t>
+          <t>chủi</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11112,12 +11112,12 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ngưỉ</t>
+          <t>chưỉ</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>ngửi</t>
+          <t>chửi</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -11129,12 +11129,12 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>nuí</t>
+          <t>gưỉ</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>núi</t>
+          <t>gửi</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -11146,12 +11146,12 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>qùi</t>
+          <t>luị</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>quì</t>
+          <t>lụi</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11163,12 +11163,12 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>qúi</t>
+          <t>muì</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>quí</t>
+          <t>mùi</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -11180,12 +11180,12 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>qũi</t>
+          <t>muĩ</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>quĩ</t>
+          <t>mũi</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -11197,12 +11197,12 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>qủi</t>
+          <t>ngưỉ</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>quỉ</t>
+          <t>ngửi</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11214,12 +11214,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>suì</t>
+          <t>nuí</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>sùi</t>
+          <t>núi</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11231,12 +11231,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>suỉ</t>
+          <t>qùi</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>sủi</t>
+          <t>quì</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -11248,12 +11248,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>thuỉ</t>
+          <t>qúi</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>thủi</t>
+          <t>quí</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -11265,12 +11265,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>truị</t>
+          <t>qũi</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>trụi</t>
+          <t>quĩ</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11282,12 +11282,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>tuỉ</t>
+          <t>qủi</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>tủi</t>
+          <t>quỉ</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -11299,12 +11299,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>vuị</t>
+          <t>suì</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>vụi</t>
+          <t>sùi</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -11316,12 +11316,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>vuỉ</t>
+          <t>suỉ</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>vủi</t>
+          <t>sủi</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11333,12 +11333,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>xuí</t>
+          <t>thuỉ</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>xúi</t>
+          <t>thủi</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11350,12 +11350,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>uí</t>
+          <t>truị</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>úi</t>
+          <t>trụi</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -11367,97 +11367,97 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>bùôn</t>
+          <t>tuỉ</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>buồn</t>
+          <t>tủi</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>uo</t>
+          <t>ui</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>bụôc</t>
+          <t>vuị</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>buộc</t>
+          <t>vụi</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>uo</t>
+          <t>ui</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>buớc</t>
+          <t>vuỉ</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>bước</t>
+          <t>vủi</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>uo</t>
+          <t>ui</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>bưóc</t>
+          <t>xuí</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>bước</t>
+          <t>xúi</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>uo</t>
+          <t>ui</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>bứơc</t>
+          <t>uí</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>bước</t>
+          <t>úi</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>uo</t>
+          <t>ui</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>chuơng</t>
+          <t>bùôn</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>chương</t>
+          <t>buồn</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11469,12 +11469,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>chưóc</t>
+          <t>bụôc</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>chước</t>
+          <t>buộc</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -11486,12 +11486,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>chuởng</t>
+          <t>buớc</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>chưởng</t>
+          <t>bước</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -11503,12 +11503,12 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>cụôc</t>
+          <t>bưóc</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>cuộc</t>
+          <t>bước</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -11520,12 +11520,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>cuơng</t>
+          <t>bứơc</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>cương</t>
+          <t>bước</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -11537,12 +11537,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>cuớp</t>
+          <t>chuơng</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>cướp</t>
+          <t>chương</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11554,12 +11554,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>cuờng</t>
+          <t>chưóc</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>cường</t>
+          <t>chước</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11571,12 +11571,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>cừơng</t>
+          <t>chuởng</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>cường</t>
+          <t>chưởng</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11588,12 +11588,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>cuỡng</t>
+          <t>cụôc</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>cưỡng</t>
+          <t>cuộc</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -11605,12 +11605,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>cữơng</t>
+          <t>cuơng</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>cưỡng</t>
+          <t>cương</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -11622,12 +11622,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>duơng</t>
+          <t>cuớp</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>dương</t>
+          <t>cướp</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -11639,12 +11639,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>duờng</t>
+          <t>cuờng</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>dường</t>
+          <t>cường</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -11656,12 +11656,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>dừơng</t>
+          <t>cừơng</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>dường</t>
+          <t>cường</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11673,12 +11673,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>duỡng</t>
+          <t>cuỡng</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>dưỡng</t>
+          <t>cưỡng</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11690,12 +11690,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>dựơc</t>
+          <t>cữơng</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>dược</t>
+          <t>cưỡng</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11707,12 +11707,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>dựơng</t>
+          <t>duơng</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>dượng</t>
+          <t>dương</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -11724,12 +11724,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>guơm</t>
+          <t>duờng</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>gươm</t>
+          <t>dường</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -11741,12 +11741,12 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>guơng</t>
+          <t>dừơng</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>gương</t>
+          <t>dường</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -11758,12 +11758,12 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>guợng</t>
+          <t>duỡng</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>gượng</t>
+          <t>dưỡng</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -11775,12 +11775,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>huơng</t>
+          <t>dựơc</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>hương</t>
+          <t>dược</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -11792,12 +11792,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>huớng</t>
+          <t>dựơng</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>hướng</t>
+          <t>dượng</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11809,12 +11809,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>hứơng</t>
+          <t>guơm</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>hướng</t>
+          <t>gươm</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11826,12 +11826,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>huờng</t>
+          <t>guơng</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>hường</t>
+          <t>gương</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -11843,12 +11843,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>hửơng</t>
+          <t>guợng</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>hưởng</t>
+          <t>gượng</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -11860,12 +11860,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>khuơng</t>
+          <t>huơng</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>khương</t>
+          <t>hương</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -11877,12 +11877,12 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>luơng</t>
+          <t>huớng</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>lương</t>
+          <t>hướng</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -11894,12 +11894,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>luớt</t>
+          <t>hứơng</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>lướt</t>
+          <t>hướng</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11911,12 +11911,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>lứơt</t>
+          <t>huờng</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>lướt</t>
+          <t>hường</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11928,12 +11928,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>luờm</t>
+          <t>huởng</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>lườm</t>
+          <t>hưởng</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11945,12 +11945,12 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>lừơng</t>
+          <t>hửơng</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>lường</t>
+          <t>hưởng</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -11962,12 +11962,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>luỡng</t>
+          <t>huỡn</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>lưỡng</t>
+          <t>hưỡn</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -11979,12 +11979,12 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>luợc</t>
+          <t>khuơng</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>lược</t>
+          <t>khương</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -11996,12 +11996,12 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>lựơc</t>
+          <t>luơng</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>lược</t>
+          <t>lương</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -12013,12 +12013,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>luợn</t>
+          <t>luớt</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>lượn</t>
+          <t>lướt</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -12030,12 +12030,12 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>lựơt</t>
+          <t>lứơt</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>lượt</t>
+          <t>lướt</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12047,12 +12047,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>múôn</t>
+          <t>luờm</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>muốn</t>
+          <t>lườm</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12064,12 +12064,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>muớn</t>
+          <t>lừơng</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>mướn</t>
+          <t>lường</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -12081,12 +12081,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>muớt</t>
+          <t>luỡng</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>mướt</t>
+          <t>lưỡng</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -12098,12 +12098,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>muợn</t>
+          <t>luợc</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>mượn</t>
+          <t>lược</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -12115,12 +12115,12 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>mựơn</t>
+          <t>lựơc</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>mượn</t>
+          <t>lược</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -12132,12 +12132,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ngữơng</t>
+          <t>luợn</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>ngưỡng</t>
+          <t>lượn</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -12149,12 +12149,12 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>nguợc</t>
+          <t>lựơt</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>ngược</t>
+          <t>lượt</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12166,12 +12166,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ngựơc</t>
+          <t>múôn</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>ngược</t>
+          <t>muốn</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12183,12 +12183,12 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>nguợng</t>
+          <t>muớn</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>ngượng</t>
+          <t>mướn</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -12200,12 +12200,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>nhuợc</t>
+          <t>muớt</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>nhược</t>
+          <t>mướt</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -12217,12 +12217,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>nuơng</t>
+          <t>muợn</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>nương</t>
+          <t>mượn</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -12234,12 +12234,12 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>nuớc</t>
+          <t>mựơn</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>nước</t>
+          <t>mượn</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -12251,12 +12251,12 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>nứơc</t>
+          <t>ngữơng</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>nước</t>
+          <t>ngưỡng</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12268,12 +12268,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>nuớng</t>
+          <t>nguợc</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>nướng</t>
+          <t>ngược</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12285,12 +12285,12 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>nứớc</t>
+          <t>ngựơc</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>nướ́c</t>
+          <t>ngược</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12302,12 +12302,12 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>nuợp</t>
+          <t>nguợng</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>nượp</t>
+          <t>ngượng</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12319,12 +12319,12 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>phuơng</t>
+          <t>nhuợc</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>phương</t>
+          <t>nhược</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -12336,12 +12336,12 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>phuớc</t>
+          <t>nuơng</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>phước</t>
+          <t>nương</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -12353,12 +12353,12 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>phuởn</t>
+          <t>nuớc</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>phưởn</t>
+          <t>nước</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -12370,12 +12370,12 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>phuợng</t>
+          <t>nứơc</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>phượng</t>
+          <t>nước</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12387,12 +12387,12 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>phựơng</t>
+          <t>nuớng</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>phượng</t>
+          <t>nướng</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12404,12 +12404,12 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>rụôt</t>
+          <t>nứớc</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>ruột</t>
+          <t>nướ́c</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12421,12 +12421,12 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>ruơng</t>
+          <t>nuợp</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>rương</t>
+          <t>nượp</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -12438,12 +12438,12 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ruợt</t>
+          <t>phuơng</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>rượt</t>
+          <t>phương</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12455,12 +12455,12 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>suơng</t>
+          <t>phuớc</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>sương</t>
+          <t>phước</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -12472,12 +12472,12 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>suớng</t>
+          <t>phuởn</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>sướng</t>
+          <t>phưởn</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12489,12 +12489,12 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>suớt</t>
+          <t>phuợng</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>sướt</t>
+          <t>phượng</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -12506,12 +12506,12 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>suờn</t>
+          <t>phựơng</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>sườn</t>
+          <t>phượng</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12523,12 +12523,12 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>suợt</t>
+          <t>rụôt</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>sượt</t>
+          <t>ruột</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12540,12 +12540,12 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>thụôc</t>
+          <t>ruơng</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>thuộc</t>
+          <t>rương</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -12557,12 +12557,12 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>thụôt</t>
+          <t>ruợt</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>thuột</t>
+          <t>rượt</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -12574,12 +12574,12 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>thủơ</t>
+          <t>suơng</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>thuở</t>
+          <t>sương</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -12591,12 +12591,12 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>thuơng</t>
+          <t>suớng</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>thương</t>
+          <t>sướng</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -12608,12 +12608,12 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>thuớc</t>
+          <t>suớt</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>thước</t>
+          <t>sướt</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12625,12 +12625,12 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>thứơc</t>
+          <t>suờn</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>thước</t>
+          <t>sườn</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12642,12 +12642,12 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>thuờn</t>
+          <t>suợt</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>thườn</t>
+          <t>sượt</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12659,12 +12659,12 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>thuờng</t>
+          <t>thụôc</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>thường</t>
+          <t>thuộc</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12676,12 +12676,12 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>thừơng</t>
+          <t>thụôt</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>thường</t>
+          <t>thuột</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12693,12 +12693,12 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>thửơ</t>
+          <t>thủơ</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>thưở</t>
+          <t>thuở</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12710,12 +12710,12 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>thuởng</t>
+          <t>thuơng</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>thưởng</t>
+          <t>thương</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -12727,12 +12727,12 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>thửơng</t>
+          <t>thuớc</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>thưởng</t>
+          <t>thước</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12744,12 +12744,12 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>thuợng</t>
+          <t>thứơc</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>thượng</t>
+          <t>thước</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12761,12 +12761,12 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>thựơng</t>
+          <t>thuờn</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>thượng</t>
+          <t>thườn</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12778,12 +12778,12 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>truớc</t>
+          <t>thuờng</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>trước</t>
+          <t>thường</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -12795,12 +12795,12 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>trưóc</t>
+          <t>thừơng</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>trước</t>
+          <t>thường</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12812,12 +12812,12 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>trứơc</t>
+          <t>thửơ</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>trước</t>
+          <t>thưở</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12829,12 +12829,12 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>trừơn</t>
+          <t>thuởng</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>trườn</t>
+          <t>thưởng</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -12846,12 +12846,12 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>truờng</t>
+          <t>thửơng</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>trường</t>
+          <t>thưởng</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -12863,12 +12863,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>trừơng</t>
+          <t>thuợng</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>trường</t>
+          <t>thượng</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12880,12 +12880,12 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>truởng</t>
+          <t>thựơng</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>trưởng</t>
+          <t>thượng</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12897,12 +12897,12 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>trửơng</t>
+          <t>truớc</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>trưởng</t>
+          <t>trước</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -12914,12 +12914,12 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>truợng</t>
+          <t>trưóc</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>trượng</t>
+          <t>trước</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12931,12 +12931,12 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>trựơng</t>
+          <t>trứơc</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>trượng</t>
+          <t>trước</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -12948,12 +12948,12 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>truợt</t>
+          <t>trừơn</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>trượt</t>
+          <t>trườn</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -12965,12 +12965,12 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>tuơng</t>
+          <t>truờng</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>tương</t>
+          <t>trường</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -12982,12 +12982,12 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>tuớc</t>
+          <t>trừơng</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>tước</t>
+          <t>trường</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -12999,12 +12999,12 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>tuớng</t>
+          <t>truởng</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>tướng</t>
+          <t>trưởng</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13016,12 +13016,12 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>tuờng</t>
+          <t>trửơng</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>tường</t>
+          <t>trưởng</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -13033,12 +13033,12 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>từơng</t>
+          <t>truợng</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>tường</t>
+          <t>trượng</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -13050,12 +13050,12 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>tuởng</t>
+          <t>trựơng</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>tưởng</t>
+          <t>trượng</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13067,12 +13067,12 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>tửơng</t>
+          <t>truợt</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>tưởng</t>
+          <t>trượt</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13084,12 +13084,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>tuợng</t>
+          <t>tuơng</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>tượng</t>
+          <t>tương</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -13101,12 +13101,12 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>tựơng</t>
+          <t>tuớc</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>tượng</t>
+          <t>tước</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13118,12 +13118,12 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>vuơn</t>
+          <t>tuớng</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>vươn</t>
+          <t>tướng</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13135,12 +13135,12 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>vuơng</t>
+          <t>tuờng</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>vương</t>
+          <t>tường</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -13152,12 +13152,12 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>vuờn</t>
+          <t>từơng</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>vườn</t>
+          <t>tường</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13169,12 +13169,12 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>vừơn</t>
+          <t>tuởng</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>vườn</t>
+          <t>tưởng</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -13186,12 +13186,12 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>vuợn</t>
+          <t>tửơng</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>vượn</t>
+          <t>tưởng</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -13203,12 +13203,12 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>vựơng</t>
+          <t>tuợng</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>vượng</t>
+          <t>tượng</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13220,12 +13220,12 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>vuợt</t>
+          <t>tựơng</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>vượt</t>
+          <t>tượng</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13237,12 +13237,12 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>vựơt</t>
+          <t>vuơn</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>vượt</t>
+          <t>vươn</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13254,12 +13254,12 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>xúông</t>
+          <t>vuơng</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>xuống</t>
+          <t>vương</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -13271,12 +13271,12 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>xuơng</t>
+          <t>vuờn</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>xương</t>
+          <t>vườn</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13288,12 +13288,12 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>xuớng</t>
+          <t>vừơn</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>xướng</t>
+          <t>vườn</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13305,12 +13305,12 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>đuơng</t>
+          <t>vuợn</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>đương</t>
+          <t>vượn</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13322,12 +13322,12 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>đuờng</t>
+          <t>vựơng</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>đường</t>
+          <t>vượng</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13339,12 +13339,12 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>đừơng</t>
+          <t>vuợt</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>đường</t>
+          <t>vượt</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13356,12 +13356,12 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>đuợc</t>
+          <t>vựơt</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>được</t>
+          <t>vượt</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13373,12 +13373,12 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>đưọc</t>
+          <t>xúông</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>được</t>
+          <t>xuống</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -13390,12 +13390,12 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>đựơc</t>
+          <t>xuơng</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>được</t>
+          <t>xương</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13407,12 +13407,12 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>đuợm</t>
+          <t>xuớng</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>đượm</t>
+          <t>xướng</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -13424,12 +13424,12 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>đựợc</t>
+          <t>đuơng</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>đượ̣c</t>
+          <t>đương</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -13441,12 +13441,12 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>uớc</t>
+          <t>đuờng</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>ước</t>
+          <t>đường</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -13458,12 +13458,12 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>úơc</t>
+          <t>đừơng</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>ước</t>
+          <t>đường</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -13475,12 +13475,12 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>ứơc</t>
+          <t>đuợc</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>ước</t>
+          <t>được</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -13492,12 +13492,12 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>ứơp</t>
+          <t>đưọc</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>ướp</t>
+          <t>được</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -13509,12 +13509,12 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>uớt</t>
+          <t>đựơc</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>ướt</t>
+          <t>được</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13526,12 +13526,12 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>ứơt</t>
+          <t>đuợm</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>ướt</t>
+          <t>đượm</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13543,131 +13543,131 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>chuôí</t>
+          <t>đựợc</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>chuối</t>
+          <t>đượ̣c</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>cuôí</t>
+          <t>uớc</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>cuối</t>
+          <t>ước</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>cươí</t>
+          <t>úơc</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>cưới</t>
+          <t>ước</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>dứơi</t>
+          <t>ứơc</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>dưới</t>
+          <t>ước</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>mụôi</t>
+          <t>ứơp</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>muội</t>
+          <t>ướp</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>mừơi</t>
+          <t>uớt</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>mười</t>
+          <t>ướt</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>ngươì</t>
+          <t>ứơt</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>người</t>
+          <t>ướt</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>ngừơi</t>
+          <t>chuôí</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>người</t>
+          <t>chuối</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -13679,12 +13679,12 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>ruôì</t>
+          <t>cuôí</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>ruồi</t>
+          <t>cuối</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13696,12 +13696,12 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>tuôỉ</t>
+          <t>cươí</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>tuổi</t>
+          <t>cưới</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13713,284 +13713,284 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>rựơu</t>
+          <t>dứơi</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>rượu</t>
+          <t>dưới</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>uou</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>rựợu</t>
+          <t>mụôi</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>rượu</t>
+          <t>muội</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>uou</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>cưú</t>
+          <t>mừơi</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>cứu</t>
+          <t>mười</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>cưủ</t>
+          <t>ngươì</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>cửu</t>
+          <t>người</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>cưụ</t>
+          <t>ngừơi</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>cựu</t>
+          <t>người</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>hưũ</t>
+          <t>ruôì</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>hữu</t>
+          <t>ruồi</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>lưụ</t>
+          <t>tuôỉ</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>lựu</t>
+          <t>tuổi</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>mưụ</t>
+          <t>rựơu</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>mựu</t>
+          <t>rượu</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uou</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>ưụ</t>
+          <t>rựợu</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>ựu</t>
+          <t>rượu</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uou</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>búyt</t>
+          <t>cưú</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>buýt</t>
+          <t>cứu</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>chuỳ</t>
+          <t>cưủ</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>chùy</t>
+          <t>cửu</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>chuỷ</t>
+          <t>cưụ</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>chủy</t>
+          <t>cựu</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>húyt</t>
+          <t>hưũ</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>huýt</t>
+          <t>hữu</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>hụych</t>
+          <t>lưụ</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>huỵch</t>
+          <t>lựu</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>huý</t>
+          <t>mưụ</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>húy</t>
+          <t>mựu</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>huỵ</t>
+          <t>ưụ</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>hụy</t>
+          <t>ựu</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>huỷ</t>
+          <t>búyt</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>hủy</t>
+          <t>buýt</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -14002,12 +14002,12 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>khuỵ</t>
+          <t>chuỳ</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>khụy</t>
+          <t>chùy</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -14019,12 +14019,12 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>khuỷ</t>
+          <t>chuỷ</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>khủy</t>
+          <t>chủy</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -14036,12 +14036,12 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>luý</t>
+          <t>húyt</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>lúy</t>
+          <t>huýt</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -14053,12 +14053,12 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>luỹ</t>
+          <t>hụych</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>lũy</t>
+          <t>huỵch</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14070,12 +14070,12 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>luỵ</t>
+          <t>huý</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>lụy</t>
+          <t>húy</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -14087,12 +14087,12 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>nguỵ</t>
+          <t>huỵ</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>ngụy</t>
+          <t>hụy</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -14104,12 +14104,12 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>nhuỵ</t>
+          <t>huỷ</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>nhụy</t>
+          <t>hủy</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14121,12 +14121,12 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>qui</t>
+          <t>khuỵ</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>quy</t>
+          <t>khụy</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14138,12 +14138,12 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>qúy</t>
+          <t>khuỷ</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>quý</t>
+          <t>khủy</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -14155,12 +14155,12 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>qùy</t>
+          <t>luý</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>quỳ</t>
+          <t>lúy</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -14172,12 +14172,12 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>qụy</t>
+          <t>luỹ</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>quỵ</t>
+          <t>lũy</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14189,12 +14189,12 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>qủy</t>
+          <t>luỵ</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>quỷ</t>
+          <t>lụy</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -14206,12 +14206,12 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>qũy</t>
+          <t>nguỵ</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>quỹ</t>
+          <t>ngụy</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -14223,12 +14223,12 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>súyt</t>
+          <t>nhuỵ</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>suýt</t>
+          <t>nhụy</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -14240,12 +14240,12 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>suý</t>
+          <t>qui</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>súy</t>
+          <t>quy</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -14257,12 +14257,12 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>thuỳ</t>
+          <t>qúy</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>thùy</t>
+          <t>quý</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14274,12 +14274,12 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>thuý</t>
+          <t>qùy</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>thúy</t>
+          <t>quỳ</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -14291,12 +14291,12 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>thuỹ</t>
+          <t>qụy</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>thũy</t>
+          <t>quỵ</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14308,12 +14308,12 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>thuỵ</t>
+          <t>qủy</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>thụy</t>
+          <t>quỷ</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14325,12 +14325,12 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>thuỷ</t>
+          <t>qũy</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>thủy</t>
+          <t>quỹ</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -14342,12 +14342,12 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>truỳ</t>
+          <t>súyt</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>trùy</t>
+          <t>suýt</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -14359,12 +14359,12 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>truỵ</t>
+          <t>suý</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>trụy</t>
+          <t>súy</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14376,12 +14376,12 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>truỷ</t>
+          <t>thuỳ</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>trủy</t>
+          <t>thùy</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -14393,12 +14393,12 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>tuỳ</t>
+          <t>thuý</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>tùy</t>
+          <t>thúy</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -14410,12 +14410,12 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>tuý</t>
+          <t>thuỹ</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>túy</t>
+          <t>thũy</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -14427,12 +14427,12 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>tuỵ</t>
+          <t>thuỵ</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>tụy</t>
+          <t>thụy</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -14444,12 +14444,12 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>tuỷ</t>
+          <t>thuỷ</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>tủy</t>
+          <t>thủy</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -14461,12 +14461,12 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>úynh</t>
+          <t>truỳ</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>uýnh</t>
+          <t>trùy</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -14478,12 +14478,12 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>xúyt</t>
+          <t>truỵ</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>xuýt</t>
+          <t>trụy</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -14495,12 +14495,12 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>xuỳ</t>
+          <t>truỷ</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>xùy</t>
+          <t>trủy</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -14512,12 +14512,12 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>xuý</t>
+          <t>tuỳ</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>xúy</t>
+          <t>tùy</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -14529,12 +14529,12 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>uỳ</t>
+          <t>tuý</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>ùy</t>
+          <t>túy</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -14546,12 +14546,12 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>uý</t>
+          <t>tuỵ</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>úy</t>
+          <t>tụy</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -14563,12 +14563,12 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>uỹ</t>
+          <t>tuỷ</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>ũy</t>
+          <t>tủy</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -14580,12 +14580,12 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>uỵ</t>
+          <t>úynh</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>ụy</t>
+          <t>uýnh</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -14597,12 +14597,12 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>uỷ</t>
+          <t>xúyt</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>ủy</t>
+          <t>xuýt</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -14614,131 +14614,131 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>chuỷên</t>
+          <t>xuỳ</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>chuyển</t>
+          <t>xùy</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>chuỵên</t>
+          <t>xuý</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>chuyện</t>
+          <t>xúy</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>chuỵện</t>
+          <t>uỳ</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>chuyệ̣n</t>
+          <t>ùy</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>huỵên</t>
+          <t>uý</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>huyện</t>
+          <t>úy</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>huỵêt</t>
+          <t>uỹ</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>huyệt</t>
+          <t>ũy</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>huỵệt</t>
+          <t>uỵ</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>huyệ̣t</t>
+          <t>ụy</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>hụyệt</t>
+          <t>uỷ</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>huyệ̣t</t>
+          <t>ủy</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>luỵên</t>
+          <t>chuỷên</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>luyện</t>
+          <t>chuyển</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -14750,12 +14750,12 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>luỵện</t>
+          <t>chuỵên</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>luyệ̣n</t>
+          <t>chuyện</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -14767,12 +14767,12 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>nguỵêt</t>
+          <t>chuỵện</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>nguyệt</t>
+          <t>chuyệ̣n</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -14784,12 +14784,12 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>ngụyện</t>
+          <t>huỵên</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>nguyệ̣n</t>
+          <t>huyện</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -14801,12 +14801,12 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>truỵện</t>
+          <t>huỵêt</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>truyệ̣n</t>
+          <t>huyệt</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -14818,12 +14818,12 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>trụyện</t>
+          <t>huỵệt</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>truyệ̣n</t>
+          <t>huyệ̣t</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -14835,83 +14835,202 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>khùyu</t>
+          <t>hụyệt</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>khuỳu</t>
+          <t>huyệ̣t</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>khụyu</t>
+          <t>luỵên</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>khuỵu</t>
+          <t>luyện</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>khuyủ</t>
+          <t>luỵện</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>khuỷu</t>
+          <t>luyệ̣n</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>khủyu</t>
+          <t>nguỵêt</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>khuỷu</t>
+          <t>nguyệt</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
+          <t>ngụyện</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>nguyệ̣n</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>uye</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>truỵện</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>truyệ̣n</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>uye</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>trụyện</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>truyệ̣n</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>uye</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>khùyu</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>khuỳu</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>khụyu</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>khuỵu</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>khuyủ</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>khuỷu</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>khủyu</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>khuỷu</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
           <t>yêú</t>
         </is>
       </c>
-      <c r="B852" t="inlineStr">
+      <c r="B859" t="inlineStr">
         <is>
           <t>yếu</t>
         </is>
       </c>
-      <c r="C852" t="inlineStr">
+      <c r="C859" t="inlineStr">
         <is>
           <t>yeu</t>
         </is>

--- a/underthesea/feature_engineering/rules.xlsx
+++ b/underthesea/feature_engineering/rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C896"/>
+  <dimension ref="A1:C903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12659,12 +12659,12 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>lựơt</t>
+          <t>lựơng</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>lượt</t>
+          <t>lượng</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12676,12 +12676,12 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>múôn</t>
+          <t>lựơt</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>muốn</t>
+          <t>lượt</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12693,12 +12693,12 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>muớn</t>
+          <t>múôn</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>mướn</t>
+          <t>muốn</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12710,12 +12710,12 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>muớt</t>
+          <t>muớn</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>mướt</t>
+          <t>mướn</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -12727,12 +12727,12 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>muợn</t>
+          <t>muớt</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>mượn</t>
+          <t>mướt</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12744,7 +12744,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>mựơn</t>
+          <t>muợn</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -12761,12 +12761,12 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ngữơng</t>
+          <t>mựơn</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>ngưỡng</t>
+          <t>mượn</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12778,12 +12778,12 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>nguợc</t>
+          <t>ngữơng</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>ngược</t>
+          <t>ngưỡng</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -12795,7 +12795,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>ngựơc</t>
+          <t>nguợc</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -12812,12 +12812,12 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>nguợng</t>
+          <t>ngựơc</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>ngượng</t>
+          <t>ngược</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12829,12 +12829,12 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>nhuợc</t>
+          <t>nguợng</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>nhược</t>
+          <t>ngượng</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -12846,12 +12846,12 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>nuơng</t>
+          <t>nhứơng</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>nương</t>
+          <t>nhướng</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -12863,12 +12863,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>nuớc</t>
+          <t>nhuợc</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>nước</t>
+          <t>nhược</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12880,12 +12880,12 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>nứơc</t>
+          <t>nuơng</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>nước</t>
+          <t>nương</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12897,12 +12897,12 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>nuớng</t>
+          <t>nuớc</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>nướng</t>
+          <t>nước</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -12914,12 +12914,12 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>nứớc</t>
+          <t>nứơc</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>nướ́c</t>
+          <t>nước</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12931,12 +12931,12 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>nuợp</t>
+          <t>nuớng</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>nượp</t>
+          <t>nướng</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -12948,12 +12948,12 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>phuơng</t>
+          <t>nứớc</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>phương</t>
+          <t>nướ́c</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -12965,12 +12965,12 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>phuớc</t>
+          <t>nựơng</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>phước</t>
+          <t>nượng</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -12982,12 +12982,12 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>phuởn</t>
+          <t>nuợp</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>phưởn</t>
+          <t>nượp</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -12999,12 +12999,12 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>phuợng</t>
+          <t>phuơng</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>phượng</t>
+          <t>phương</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13016,12 +13016,12 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>phựơng</t>
+          <t>phuớc</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>phượng</t>
+          <t>phước</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -13033,12 +13033,12 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>rụôt</t>
+          <t>phuởn</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>ruột</t>
+          <t>phưởn</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -13050,12 +13050,12 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>ruơng</t>
+          <t>phuợng</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>rương</t>
+          <t>phượng</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13067,12 +13067,12 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>ruợt</t>
+          <t>phựơng</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>rượt</t>
+          <t>phượng</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13084,12 +13084,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>suơng</t>
+          <t>rụôt</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>sương</t>
+          <t>ruột</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -13101,12 +13101,12 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>suớng</t>
+          <t>ruơng</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>sướng</t>
+          <t>rương</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13118,12 +13118,12 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>suớt</t>
+          <t>ruợt</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>sướt</t>
+          <t>rượt</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13135,12 +13135,12 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>suờn</t>
+          <t>suơng</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>sườn</t>
+          <t>sương</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -13152,12 +13152,12 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>suợt</t>
+          <t>suớng</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>sượt</t>
+          <t>sướng</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13169,12 +13169,12 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>thụôc</t>
+          <t>suớt</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>thuộc</t>
+          <t>sướt</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -13186,12 +13186,12 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>thụôt</t>
+          <t>suờn</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>thuột</t>
+          <t>sườn</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -13203,12 +13203,12 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>thủơ</t>
+          <t>suợt</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>thuở</t>
+          <t>sượt</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13220,12 +13220,12 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>thuơng</t>
+          <t>thụôc</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>thương</t>
+          <t>thuộc</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13237,12 +13237,12 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>thuớc</t>
+          <t>thụôt</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>thước</t>
+          <t>thuột</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13254,12 +13254,12 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>thứơc</t>
+          <t>thủơ</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>thước</t>
+          <t>thuở</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -13271,12 +13271,12 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>thuờn</t>
+          <t>thuơng</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>thườn</t>
+          <t>thương</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13288,12 +13288,12 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>thuờng</t>
+          <t>thuớc</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>thường</t>
+          <t>thước</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13305,12 +13305,12 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>thừơng</t>
+          <t>thứơc</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>thường</t>
+          <t>thước</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13322,12 +13322,12 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>thửơ</t>
+          <t>thuờn</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>thưở</t>
+          <t>thườn</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13339,12 +13339,12 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>thuởng</t>
+          <t>thuờng</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>thưởng</t>
+          <t>thường</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13356,12 +13356,12 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>thửơng</t>
+          <t>thừơng</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>thưởng</t>
+          <t>thường</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13373,12 +13373,12 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>thuợng</t>
+          <t>thửơ</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>thượng</t>
+          <t>thưở</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -13390,12 +13390,12 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>thựơng</t>
+          <t>thuởng</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>thượng</t>
+          <t>thưởng</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13407,12 +13407,12 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>truớc</t>
+          <t>thửơng</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>trước</t>
+          <t>thưởng</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -13424,12 +13424,12 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>trưóc</t>
+          <t>thuợng</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>trước</t>
+          <t>thượng</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -13441,12 +13441,12 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>trứơc</t>
+          <t>thựơng</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>trước</t>
+          <t>thượng</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -13458,12 +13458,12 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>trừơn</t>
+          <t>truớc</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>trườn</t>
+          <t>trước</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -13475,12 +13475,12 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>truờng</t>
+          <t>trưóc</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>trường</t>
+          <t>trước</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -13492,12 +13492,12 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>trừơng</t>
+          <t>trứơc</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>trường</t>
+          <t>trước</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -13509,12 +13509,12 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>truởng</t>
+          <t>trừơn</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>trưởng</t>
+          <t>trườn</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13526,12 +13526,12 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>trửơng</t>
+          <t>truờng</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>trưởng</t>
+          <t>trường</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13543,12 +13543,12 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>truợng</t>
+          <t>trừơng</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>trượng</t>
+          <t>trường</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -13560,12 +13560,12 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>trựơng</t>
+          <t>truởng</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>trượng</t>
+          <t>trưởng</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -13577,12 +13577,12 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>truợt</t>
+          <t>trửơng</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>trượt</t>
+          <t>trưởng</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -13594,12 +13594,12 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>trựợt</t>
+          <t>truợng</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>trượt</t>
+          <t>trượng</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -13611,12 +13611,12 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>tuơng</t>
+          <t>trựơng</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>tương</t>
+          <t>trượng</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -13628,12 +13628,12 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>tuớc</t>
+          <t>truợt</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>tước</t>
+          <t>trượt</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -13645,12 +13645,12 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>tuớng</t>
+          <t>trựợt</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>tướng</t>
+          <t>trượt</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -13662,12 +13662,12 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>tuờng</t>
+          <t>tuơng</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>tường</t>
+          <t>tương</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -13679,12 +13679,12 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>từơng</t>
+          <t>tuớc</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>tường</t>
+          <t>tước</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13696,12 +13696,12 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>tuởng</t>
+          <t>tuớng</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>tưởng</t>
+          <t>tướng</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13713,12 +13713,12 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>tửơng</t>
+          <t>tuờng</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>tưởng</t>
+          <t>tường</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -13730,12 +13730,12 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>tuợng</t>
+          <t>từơng</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>tượng</t>
+          <t>tường</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -13747,12 +13747,12 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>tựơng</t>
+          <t>tuởng</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>tượng</t>
+          <t>tưởng</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -13764,12 +13764,12 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>vuơn</t>
+          <t>tửơng</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>vươn</t>
+          <t>tưởng</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13781,12 +13781,12 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>vuơng</t>
+          <t>tuợng</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>vương</t>
+          <t>tượng</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -13798,12 +13798,12 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>vuờn</t>
+          <t>tựơng</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>vườn</t>
+          <t>tượng</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -13815,12 +13815,12 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>vừơn</t>
+          <t>vuơn</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>vườn</t>
+          <t>vươn</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -13832,12 +13832,12 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>vuợn</t>
+          <t>vuơng</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>vượn</t>
+          <t>vương</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -13849,12 +13849,12 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>vựơng</t>
+          <t>vuờn</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>vượng</t>
+          <t>vườn</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -13866,12 +13866,12 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>vuợt</t>
+          <t>vừơn</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>vượt</t>
+          <t>vườn</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13883,12 +13883,12 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>vựơt</t>
+          <t>vuợn</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>vượt</t>
+          <t>vượn</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13900,12 +13900,12 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>xúông</t>
+          <t>vựơng</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>xuống</t>
+          <t>vượng</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -13917,12 +13917,12 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>xuơng</t>
+          <t>vuợt</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>xương</t>
+          <t>vượt</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -13934,12 +13934,12 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>xuớng</t>
+          <t>vựơt</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>xướng</t>
+          <t>vượt</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -13951,12 +13951,12 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>đuơng</t>
+          <t>xúông</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>đương</t>
+          <t>xuống</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -13968,12 +13968,12 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>đuờng</t>
+          <t>xuơng</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>đường</t>
+          <t>xương</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -13985,12 +13985,12 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>đừơng</t>
+          <t>xuớng</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>đường</t>
+          <t>xướng</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -14002,12 +14002,12 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>đuợc</t>
+          <t>đuơng</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>được</t>
+          <t>đương</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -14019,12 +14019,12 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>đưọc</t>
+          <t>đuờng</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>được</t>
+          <t>đường</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -14036,12 +14036,12 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>đựơc</t>
+          <t>đừơng</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>được</t>
+          <t>đường</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -14053,12 +14053,12 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>đuợm</t>
+          <t>đuợc</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>đượm</t>
+          <t>được</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14070,12 +14070,12 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>đựợc</t>
+          <t>đưọc</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>đượ̣c</t>
+          <t>được</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -14087,12 +14087,12 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>uớc</t>
+          <t>đựơc</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>ước</t>
+          <t>được</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -14104,12 +14104,12 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>úơc</t>
+          <t>đuợm</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>ước</t>
+          <t>đượm</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14121,12 +14121,12 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>ứơc</t>
+          <t>đựợc</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>ước</t>
+          <t>đượ̣c</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14138,12 +14138,12 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>ứơp</t>
+          <t>uớc</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>ướp</t>
+          <t>ước</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -14155,12 +14155,12 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>uớt</t>
+          <t>úơc</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>ướt</t>
+          <t>ước</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -14172,12 +14172,12 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>ứơt</t>
+          <t>ứơc</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>ướt</t>
+          <t>ước</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14189,80 +14189,80 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>chuôí</t>
+          <t>uớm</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>chuối</t>
+          <t>ướm</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>cuôí</t>
+          <t>ứơp</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>cuối</t>
+          <t>ướp</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>cươí</t>
+          <t>uớt</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>cưới</t>
+          <t>ướt</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>cứơi</t>
+          <t>ứơt</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>cưới</t>
+          <t>ướt</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>uoi</t>
+          <t>uo</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>cươì</t>
+          <t>chuôí</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>cười</t>
+          <t>chuối</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14274,12 +14274,12 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>dứơi</t>
+          <t>cuôí</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>dưới</t>
+          <t>cuối</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -14291,12 +14291,12 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>mụôi</t>
+          <t>cươí</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>muội</t>
+          <t>cưới</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14308,12 +14308,12 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>mừơi</t>
+          <t>cứơi</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>mười</t>
+          <t>cưới</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14325,12 +14325,12 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>ngươì</t>
+          <t>cươì</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>người</t>
+          <t>cười</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -14342,12 +14342,12 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>ngừơi</t>
+          <t>dứơi</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>người</t>
+          <t>dưới</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -14359,12 +14359,12 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>nuôị</t>
+          <t>mụôi</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>nuội</t>
+          <t>muội</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14376,12 +14376,12 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>ruôì</t>
+          <t>mừơi</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>ruồi</t>
+          <t>mười</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -14393,12 +14393,12 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>tuôỉ</t>
+          <t>ngươì</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>tuổi</t>
+          <t>người</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -14410,12 +14410,12 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>tủôi</t>
+          <t>ngừơi</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>tuổi</t>
+          <t>người</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -14427,12 +14427,12 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>tủổi</t>
+          <t>nuôị</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>tuổi</t>
+          <t>nuội</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -14444,114 +14444,114 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>rựơu</t>
+          <t>ruôì</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>rượu</t>
+          <t>ruồi</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>uou</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>rựợu</t>
+          <t>tuôỉ</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>rượu</t>
+          <t>tuổi</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>uou</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>cưú</t>
+          <t>tủôi</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>cứu</t>
+          <t>tuổi</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>cưủ</t>
+          <t>tủổi</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>cửu</t>
+          <t>tuổi</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uoi</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>cưụ</t>
+          <t>rựơu</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>cựu</t>
+          <t>rượu</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uou</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>hưũ</t>
+          <t>rựợu</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>hữu</t>
+          <t>rượu</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>uou</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>lưụ</t>
+          <t>cưú</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>lựu</t>
+          <t>cứu</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -14563,12 +14563,12 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>mưụ</t>
+          <t>cưủ</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>mựu</t>
+          <t>cửu</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -14580,12 +14580,12 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>ưụ</t>
+          <t>cưụ</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>ựu</t>
+          <t>cựu</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -14597,80 +14597,80 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>búyt</t>
+          <t>hưũ</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>buýt</t>
+          <t>hữu</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>chuỳ</t>
+          <t>lưụ</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>chùy</t>
+          <t>lựu</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>chuỷ</t>
+          <t>mưụ</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>chủy</t>
+          <t>mựu</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>húyt</t>
+          <t>ưụ</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>huýt</t>
+          <t>ựu</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>uy</t>
+          <t>uu</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>hụych</t>
+          <t>búyt</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>huỵch</t>
+          <t>buýt</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -14682,12 +14682,12 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>huý</t>
+          <t>chuỳ</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>húy</t>
+          <t>chùy</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -14699,12 +14699,12 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>huỵ</t>
+          <t>chuỷ</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>hụy</t>
+          <t>chủy</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -14716,12 +14716,12 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>huỷ</t>
+          <t>húyt</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>hủy</t>
+          <t>huýt</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -14733,12 +14733,12 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>khuỵ</t>
+          <t>hùynh</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>khụy</t>
+          <t>huỳnh</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -14750,12 +14750,12 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>khuỷ</t>
+          <t>hụych</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>khủy</t>
+          <t>huỵch</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -14767,12 +14767,12 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>luý</t>
+          <t>huý</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>lúy</t>
+          <t>húy</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -14784,12 +14784,12 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>luỹ</t>
+          <t>huỵ</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>lũy</t>
+          <t>hụy</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -14801,12 +14801,12 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>luỵ</t>
+          <t>huỷ</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>lụy</t>
+          <t>hủy</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -14818,12 +14818,12 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>ngúyt</t>
+          <t>khuỵ</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>nguýt</t>
+          <t>khụy</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -14835,12 +14835,12 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>nguỵ</t>
+          <t>khuỷ</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>ngụy</t>
+          <t>khủy</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -14852,12 +14852,12 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>nhuỵ</t>
+          <t>luý</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>nhụy</t>
+          <t>lúy</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -14869,12 +14869,12 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>qui</t>
+          <t>luỹ</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>quy</t>
+          <t>lũy</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -14886,12 +14886,12 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>qúy</t>
+          <t>luỵ</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>quý</t>
+          <t>lụy</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -14903,12 +14903,12 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>qùy</t>
+          <t>ngúyt</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>quỳ</t>
+          <t>nguýt</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -14920,12 +14920,12 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>qụy</t>
+          <t>nguỵ</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>quỵ</t>
+          <t>ngụy</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -14937,12 +14937,12 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>qủy</t>
+          <t>nhuỵ</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>quỷ</t>
+          <t>nhụy</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -14954,12 +14954,12 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>qũy</t>
+          <t>qui</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>quỹ</t>
+          <t>quy</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -14971,12 +14971,12 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>súyt</t>
+          <t>qúy</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>suýt</t>
+          <t>quý</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -14988,12 +14988,12 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>suý</t>
+          <t>qùy</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>súy</t>
+          <t>quỳ</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -15005,12 +15005,12 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>thuỳ</t>
+          <t>qùynh</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>thùy</t>
+          <t>quỳnh</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -15022,12 +15022,12 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>thuý</t>
+          <t>qụy</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>thúy</t>
+          <t>quỵ</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -15039,12 +15039,12 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>thuỹ</t>
+          <t>qủy</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>thũy</t>
+          <t>quỷ</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -15056,12 +15056,12 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>thuỵ</t>
+          <t>qũy</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>thụy</t>
+          <t>quỹ</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -15073,12 +15073,12 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>thuỷ</t>
+          <t>súyt</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>thủy</t>
+          <t>suýt</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -15090,12 +15090,12 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>truỳ</t>
+          <t>sụyt</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>trùy</t>
+          <t>suỵt</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -15107,12 +15107,12 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>truỵ</t>
+          <t>suý</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>trụy</t>
+          <t>súy</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -15124,12 +15124,12 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>truỷ</t>
+          <t>thuỳ</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>trủy</t>
+          <t>thùy</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -15141,12 +15141,12 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>tuỳ</t>
+          <t>thuý</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>tùy</t>
+          <t>thúy</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -15158,12 +15158,12 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>tuý</t>
+          <t>thuỹ</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>túy</t>
+          <t>thũy</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -15175,12 +15175,12 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>tuỵ</t>
+          <t>thuỵ</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>tụy</t>
+          <t>thụy</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -15192,12 +15192,12 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>tuỷ</t>
+          <t>thuỷ</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>tủy</t>
+          <t>thủy</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -15209,12 +15209,12 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>úynh</t>
+          <t>truỳ</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>uýnh</t>
+          <t>trùy</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -15226,12 +15226,12 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>xúyt</t>
+          <t>truỵ</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>xuýt</t>
+          <t>trụy</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -15243,12 +15243,12 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>xuỳ</t>
+          <t>truỷ</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>xùy</t>
+          <t>trủy</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -15260,12 +15260,12 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>xuý</t>
+          <t>tuỳ</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>xúy</t>
+          <t>tùy</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -15277,12 +15277,12 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>uỳ</t>
+          <t>tuý</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>ùy</t>
+          <t>túy</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -15294,12 +15294,12 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>uý</t>
+          <t>tuỵ</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>úy</t>
+          <t>tụy</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -15311,12 +15311,12 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>uỹ</t>
+          <t>tuỷ</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>ũy</t>
+          <t>tủy</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -15328,12 +15328,12 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>uỵ</t>
+          <t>úynh</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>ụy</t>
+          <t>uýnh</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -15345,12 +15345,12 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>uỷ</t>
+          <t>xúyt</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>ủy</t>
+          <t>xuýt</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -15362,131 +15362,131 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>chuỷên</t>
+          <t>xuỳ</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>chuyển</t>
+          <t>xùy</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>chuỵên</t>
+          <t>xuý</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>chuyện</t>
+          <t>xúy</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>chuỵện</t>
+          <t>uỳ</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>chuyệ̣n</t>
+          <t>ùy</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>huỵên</t>
+          <t>uý</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>huyện</t>
+          <t>úy</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>huỵêt</t>
+          <t>uỹ</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>huyệt</t>
+          <t>ũy</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>huỵệt</t>
+          <t>uỵ</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>huyệ̣t</t>
+          <t>ụy</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>hụyệt</t>
+          <t>uỷ</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>huyệ̣t</t>
+          <t>ủy</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>uye</t>
+          <t>uy</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>luỵên</t>
+          <t>chuỷên</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>luyện</t>
+          <t>chuyển</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -15498,12 +15498,12 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>luỵện</t>
+          <t>chuỵên</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>luyệ̣n</t>
+          <t>chuyện</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -15515,12 +15515,12 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>nguỵêt</t>
+          <t>chuỵện</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>nguyệt</t>
+          <t>chuyệ̣n</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -15532,12 +15532,12 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>ngụyện</t>
+          <t>huỵên</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>nguyệ̣n</t>
+          <t>huyện</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -15549,12 +15549,12 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>truỵện</t>
+          <t>huỵêt</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>truyệ̣n</t>
+          <t>huyệt</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -15566,12 +15566,12 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>trụyện</t>
+          <t>huỵệt</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>truyệ̣n</t>
+          <t>huyệ̣t</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -15583,83 +15583,202 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>khùyu</t>
+          <t>hụyệt</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>khuỳu</t>
+          <t>huyệ̣t</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>khụyu</t>
+          <t>luỵên</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>khuỵu</t>
+          <t>luyện</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>khuyủ</t>
+          <t>luỵện</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>khuỷu</t>
+          <t>luyệ̣n</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>khủyu</t>
+          <t>nguỵêt</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>khuỷu</t>
+          <t>nguyệt</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>uye</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
+          <t>ngụyện</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>nguyệ̣n</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>uye</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>truỵện</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>truyệ̣n</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>uye</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>trụyện</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>truyệ̣n</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>uye</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>khùyu</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>khuỳu</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>khụyu</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>khuỵu</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>khuyủ</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>khuỷu</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>khủyu</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>khuỷu</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>uyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
           <t>yêú</t>
         </is>
       </c>
-      <c r="B896" t="inlineStr">
+      <c r="B903" t="inlineStr">
         <is>
           <t>yếu</t>
         </is>
       </c>
-      <c r="C896" t="inlineStr">
+      <c r="C903" t="inlineStr">
         <is>
           <t>yeu</t>
         </is>
